--- a/kamuskatabakuupdate2025.xlsx
+++ b/kamuskatabakuupdate2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BAKOM RI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C037ECE-50E9-4831-B10A-2EAFC8250F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07874A96-FF10-44C1-A956-2F07D8D86EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5232" yWindow="1128" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="colloquial-indonesian-lexicon" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8918" uniqueCount="6376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8920" uniqueCount="6378">
   <si>
     <t>woww</t>
   </si>
@@ -19162,6 +19162,12 @@
   </si>
   <si>
     <t>mmng</t>
+  </si>
+  <si>
+    <t>mentri</t>
+  </si>
+  <si>
+    <t>Menteri</t>
   </si>
 </sst>
 </file>
@@ -20014,10 +20020,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4459"/>
+  <dimension ref="A1:B4460"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A4446" workbookViewId="0">
+      <selection activeCell="D4456" sqref="D4456"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -55699,6 +55705,14 @@
         <v>4952</v>
       </c>
     </row>
+    <row r="4460" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4460" t="s">
+        <v>6376</v>
+      </c>
+      <c r="B4460" t="s">
+        <v>6377</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B4459" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="A15206:A1048576 A1:A4460">
